--- a/medicine/Sexualité et sexologie/Le_Sexe_fou/Le_Sexe_fou.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Sexe_fou/Le_Sexe_fou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sexe fou (Sessomatto) est un film à sketches franco-italien réalisé par Dino Risi et sorti en 1973.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est composé de neuf segments. Tous les segments ont comme point commun le sexe et les perversions sexuelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est composé de neuf segments. Tous les segments ont comme point commun le sexe et les perversions sexuelles.
 1. Madame, il est huit heures ! (Signora, sono le otto) — durée du segment 10'
 Dès le réveil, une maîtresse de maison (Laura Antonelli) fait l'amour à un serveur (Giancarlo Giannini).
 2. Deux cœurs et une bicoque (Due cuori e una baracca) — 5'30''
@@ -560,11 +574,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
-Titre français : Le Sexe fou ou Sexe fou[2]
-Titre original italien : Sessomatto[3]
+Titre français : Le Sexe fou ou Sexe fou
+Titre original italien : Sessomatto
 Réalisation : Dino Risi
 Scénario : Ruggero Maccari
 Photographie : Alfio Contini
@@ -577,7 +593,7 @@
 Langue originale : italien
 Format : couleur par Technicolor - 1,85:1 - Son mono - 35 mm
 Genre : comédie érotique italienne à sketches
-Durée : 120 minutes[3]
+Durée : 120 minutes
 Dates de sortie :
 Italie : 20 décembre 1973
 France : 8 mai 1974 (reprise le 26 août 2020)</t>
@@ -608,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laura Antonelli (VF : Perrette Pradier) : Madame Juliette/ Celestina/ la femme d'Enrico/ Grazia/ Tamara/ la nonne/ Donna Mimma Maccò/ Tiziana
 Giancarlo Giannini : Domenico/ Cesaretto/ Enrico/ Lello/ Giansiro/ le Donneur/ Michele Maccò/ Saturnino/ Docteur Bianchi
@@ -649,7 +667,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sessomatto - 3:36
 Two Happy People (Michael Fraser/Armando Trovajoli) - 2:17
@@ -694,9 +714,11 @@
           <t>Exploitation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été un succès commercial[4],[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été un succès commercial,.
 </t>
         </is>
       </c>
